--- a/11 - RELATÓRIOS DIÁRIOS E MENSAIS/01 - Importações Diárias/20 - Importações Nova x Gestão/Mercantil/conciliados/2024/2/Conciliado_20-02-2024.xlsx
+++ b/11 - RELATÓRIOS DIÁRIOS E MENSAIS/01 - Importações Diárias/20 - Importações Nova x Gestão/Mercantil/conciliados/2024/2/Conciliado_20-02-2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="942">
   <si>
     <t>NumeroProposta</t>
   </si>
@@ -1807,7 +1807,7 @@
     <t>14/08/1991 00:00:00</t>
   </si>
   <si>
-    <t>Naotem@gmail.com</t>
+    <t>NAOTEM@GMAIL.COM</t>
   </si>
   <si>
     <t>gustavo125torres@gmail.com</t>
@@ -1909,9 +1909,6 @@
     <t>victor@gmail.com</t>
   </si>
   <si>
-    <t>NAOTEM@GMAIL.COM</t>
-  </si>
-  <si>
     <t>pamela_nucini@hotmail.com</t>
   </si>
   <si>
@@ -1945,7 +1942,7 @@
     <t>GO</t>
   </si>
   <si>
-    <t>Mandaguaçu</t>
+    <t>MANDAGUACU</t>
   </si>
   <si>
     <t>Queimados</t>
@@ -2056,9 +2053,6 @@
     <t>Recife</t>
   </si>
   <si>
-    <t>MANDAGUACU</t>
-  </si>
-  <si>
     <t>JACAREZINHO</t>
   </si>
   <si>
@@ -2200,7 +2194,7 @@
     <t>AGIL_0222</t>
   </si>
   <si>
-    <t xml:space="preserve"> AGIL_7101</t>
+    <t>AGIL_7101</t>
   </si>
   <si>
     <t>AGIL_7418</t>
@@ -3511,7 +3505,7 @@
         <v>90</v>
       </c>
       <c r="O2" s="2">
-        <v>45337.93755787037</v>
+        <v>45337</v>
       </c>
       <c r="P2" t="s">
         <v>91</v>
@@ -3586,10 +3580,10 @@
         <v>460</v>
       </c>
       <c r="AQ2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AR2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS2">
         <v>23956002</v>
@@ -3598,76 +3592,76 @@
         <v>16</v>
       </c>
       <c r="AU2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV2">
         <v>115</v>
       </c>
       <c r="AW2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ2">
         <v>11683966970</v>
       </c>
       <c r="BI2" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK2" t="s">
         <v>735</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>736</v>
       </c>
-      <c r="BK2" t="s">
-        <v>737</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>738</v>
-      </c>
       <c r="BM2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="BN2" t="s">
         <v>146</v>
       </c>
       <c r="BO2" t="s">
+        <v>806</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>734</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>807</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>734</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>734</v>
+      </c>
+      <c r="BT2" t="s">
         <v>808</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>809</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>736</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>736</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>736</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>810</v>
       </c>
       <c r="BU2" t="s">
         <v>279</v>
       </c>
       <c r="BV2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="BX2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF2">
-        <v>1</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:84">
@@ -3714,7 +3708,7 @@
         <v>90</v>
       </c>
       <c r="O3" s="2">
-        <v>45337.81209490741</v>
+        <v>45337</v>
       </c>
       <c r="P3" t="s">
         <v>92</v>
@@ -3789,10 +3783,10 @@
         <v>454</v>
       </c>
       <c r="AQ3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AR3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS3">
         <v>23931134</v>
@@ -3801,76 +3795,76 @@
         <v>16</v>
       </c>
       <c r="AU3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV3">
         <v>115</v>
       </c>
       <c r="AW3" t="s">
+        <v>692</v>
+      </c>
+      <c r="AX3" t="s">
         <v>694</v>
       </c>
-      <c r="AX3" t="s">
-        <v>696</v>
-      </c>
       <c r="AY3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AZ3">
         <v>13670741771</v>
       </c>
       <c r="BI3" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK3" t="s">
         <v>735</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>737</v>
       </c>
-      <c r="BL3" t="s">
-        <v>739</v>
-      </c>
       <c r="BM3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="BN3" t="s">
         <v>147</v>
       </c>
       <c r="BO3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP3" t="s">
+        <v>807</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>734</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>734</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>734</v>
+      </c>
+      <c r="BT3" t="s">
         <v>809</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>736</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>736</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>736</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>811</v>
       </c>
       <c r="BU3" t="s">
         <v>280</v>
       </c>
       <c r="BV3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="BX3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF3">
-        <v>1</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:84">
@@ -3917,7 +3911,7 @@
         <v>90</v>
       </c>
       <c r="O4" s="2">
-        <v>45337.77211805555</v>
+        <v>45337</v>
       </c>
       <c r="P4" t="s">
         <v>93</v>
@@ -3992,10 +3986,10 @@
         <v>455</v>
       </c>
       <c r="AQ4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS4">
         <v>16730840</v>
@@ -4004,76 +3998,76 @@
         <v>16</v>
       </c>
       <c r="AU4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV4">
         <v>115</v>
       </c>
       <c r="AW4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AY4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AZ4">
         <v>49924482832</v>
       </c>
       <c r="BI4" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK4" t="s">
         <v>735</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>737</v>
-      </c>
       <c r="BL4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="BM4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="BN4" t="s">
         <v>148</v>
       </c>
       <c r="BO4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP4" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ4" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="BU4" t="s">
         <v>281</v>
       </c>
       <c r="BV4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="BX4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF4">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:84">
@@ -4120,7 +4114,7 @@
         <v>90</v>
       </c>
       <c r="O5" s="2">
-        <v>45337.75140046296</v>
+        <v>45337</v>
       </c>
       <c r="P5" t="s">
         <v>94</v>
@@ -4195,10 +4189,10 @@
         <v>464</v>
       </c>
       <c r="AQ5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AR5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS5">
         <v>21724219</v>
@@ -4207,76 +4201,76 @@
         <v>16</v>
       </c>
       <c r="AU5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV5">
         <v>115</v>
       </c>
       <c r="AW5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AY5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AZ5">
         <v>8958642661</v>
       </c>
       <c r="BI5" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK5" t="s">
         <v>735</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>737</v>
-      </c>
       <c r="BL5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="BM5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="BN5" t="s">
         <v>149</v>
       </c>
       <c r="BO5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP5" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ5" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="BU5" t="s">
         <v>282</v>
       </c>
       <c r="BV5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="BX5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF5">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:84">
@@ -4323,7 +4317,7 @@
         <v>90</v>
       </c>
       <c r="O6" s="2">
-        <v>45337.73462962963</v>
+        <v>45337</v>
       </c>
       <c r="P6" t="s">
         <v>93</v>
@@ -4398,10 +4392,10 @@
         <v>455</v>
       </c>
       <c r="AQ6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AR6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS6">
         <v>15935043</v>
@@ -4410,76 +4404,76 @@
         <v>16</v>
       </c>
       <c r="AU6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV6">
         <v>115</v>
       </c>
       <c r="AW6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ6">
         <v>48617678810</v>
       </c>
       <c r="BI6" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK6" t="s">
         <v>735</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>737</v>
-      </c>
       <c r="BL6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="BM6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="BN6" t="s">
         <v>150</v>
       </c>
       <c r="BO6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="BU6" t="s">
         <v>283</v>
       </c>
       <c r="BV6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="BX6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE6" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF6">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:84">
@@ -4526,7 +4520,7 @@
         <v>90</v>
       </c>
       <c r="O7" s="2">
-        <v>45337.6991087963</v>
+        <v>45337</v>
       </c>
       <c r="P7" t="s">
         <v>95</v>
@@ -4601,10 +4595,10 @@
         <v>459</v>
       </c>
       <c r="AQ7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AR7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS7">
         <v>18671660</v>
@@ -4613,76 +4607,76 @@
         <v>16</v>
       </c>
       <c r="AU7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV7">
         <v>115</v>
       </c>
       <c r="AW7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AY7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AZ7">
         <v>37813027841</v>
       </c>
       <c r="BI7" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK7" t="s">
         <v>735</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>737</v>
-      </c>
       <c r="BL7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="BM7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="BN7" t="s">
         <v>151</v>
       </c>
       <c r="BO7" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP7" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ7" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="BU7" t="s">
         <v>284</v>
       </c>
       <c r="BV7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="BX7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF7">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:84">
@@ -4729,7 +4723,7 @@
         <v>90</v>
       </c>
       <c r="O8" s="2">
-        <v>45337.58172453703</v>
+        <v>45337</v>
       </c>
       <c r="P8" t="s">
         <v>92</v>
@@ -4804,10 +4798,10 @@
         <v>455</v>
       </c>
       <c r="AQ8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AR8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS8">
         <v>16205838</v>
@@ -4816,76 +4810,76 @@
         <v>16</v>
       </c>
       <c r="AU8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV8">
         <v>115</v>
       </c>
       <c r="AW8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AY8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AZ8">
         <v>46201423877</v>
       </c>
       <c r="BI8" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK8" t="s">
         <v>735</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>737</v>
-      </c>
       <c r="BL8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="BM8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="BN8" t="s">
         <v>152</v>
       </c>
       <c r="BO8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="BU8" t="s">
         <v>285</v>
       </c>
       <c r="BV8" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="BX8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE8" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF8">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:84">
@@ -4932,7 +4926,7 @@
         <v>90</v>
       </c>
       <c r="O9" s="2">
-        <v>45337.55953703704</v>
+        <v>45337</v>
       </c>
       <c r="P9" t="s">
         <v>96</v>
@@ -5007,10 +5001,10 @@
         <v>457</v>
       </c>
       <c r="AQ9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AR9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS9">
         <v>18392032</v>
@@ -5019,76 +5013,76 @@
         <v>16</v>
       </c>
       <c r="AU9" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV9">
         <v>115</v>
       </c>
       <c r="AW9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ9">
         <v>33829435819</v>
       </c>
       <c r="BI9" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK9" t="s">
         <v>735</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>737</v>
-      </c>
       <c r="BL9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="BM9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="BN9" t="s">
         <v>153</v>
       </c>
       <c r="BO9" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP9" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="BU9" t="s">
         <v>286</v>
       </c>
       <c r="BV9" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="BX9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE9" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF9">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:84">
@@ -5135,7 +5129,7 @@
         <v>90</v>
       </c>
       <c r="O10" s="2">
-        <v>45337.55609953704</v>
+        <v>45337</v>
       </c>
       <c r="P10" t="s">
         <v>97</v>
@@ -5210,10 +5204,10 @@
         <v>458</v>
       </c>
       <c r="AQ10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AR10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS10">
         <v>23956176</v>
@@ -5222,76 +5216,76 @@
         <v>16</v>
       </c>
       <c r="AU10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV10">
         <v>115</v>
       </c>
       <c r="AW10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AY10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AZ10">
         <v>8839629939</v>
       </c>
       <c r="BI10" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK10" t="s">
         <v>735</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>737</v>
-      </c>
       <c r="BL10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="BM10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="BN10" t="s">
         <v>154</v>
       </c>
       <c r="BO10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="BU10" t="s">
         <v>287</v>
       </c>
       <c r="BV10" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="BX10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE10" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF10">
-        <v>1</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:84">
@@ -5338,7 +5332,7 @@
         <v>90</v>
       </c>
       <c r="O11" s="2">
-        <v>45338.68873842592</v>
+        <v>45338</v>
       </c>
       <c r="P11" t="s">
         <v>98</v>
@@ -5413,10 +5407,10 @@
         <v>454</v>
       </c>
       <c r="AQ11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AR11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS11">
         <v>23935584</v>
@@ -5425,76 +5419,76 @@
         <v>16</v>
       </c>
       <c r="AU11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV11">
         <v>115</v>
       </c>
       <c r="AW11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AY11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AZ11">
         <v>89209338049</v>
       </c>
       <c r="BI11" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK11" t="s">
         <v>735</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>737</v>
-      </c>
       <c r="BL11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="BM11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="BN11" t="s">
         <v>155</v>
       </c>
       <c r="BO11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP11" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ11" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="BU11" t="s">
         <v>288</v>
       </c>
       <c r="BV11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BX11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF11">
-        <v>112</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:84">
@@ -5541,7 +5535,7 @@
         <v>90</v>
       </c>
       <c r="O12" s="2">
-        <v>45338.67170138889</v>
+        <v>45338</v>
       </c>
       <c r="P12" t="s">
         <v>95</v>
@@ -5616,10 +5610,10 @@
         <v>455</v>
       </c>
       <c r="AQ12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AR12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS12">
         <v>14952141</v>
@@ -5628,76 +5622,76 @@
         <v>16</v>
       </c>
       <c r="AU12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV12">
         <v>115</v>
       </c>
       <c r="AW12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AY12" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AZ12">
         <v>29497414870</v>
       </c>
       <c r="BI12" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK12" t="s">
         <v>735</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>737</v>
-      </c>
       <c r="BL12" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="BM12" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="BN12" t="s">
         <v>156</v>
       </c>
       <c r="BO12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP12" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT12" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="BU12" t="s">
         <v>289</v>
       </c>
       <c r="BV12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BX12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF12">
-        <v>112</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:84">
@@ -5744,7 +5738,7 @@
         <v>90</v>
       </c>
       <c r="O13" s="2">
-        <v>45338.66050925926</v>
+        <v>45338</v>
       </c>
       <c r="P13" t="s">
         <v>92</v>
@@ -5819,10 +5813,10 @@
         <v>458</v>
       </c>
       <c r="AQ13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AR13" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS13">
         <v>22834235</v>
@@ -5831,76 +5825,76 @@
         <v>16</v>
       </c>
       <c r="AU13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV13">
         <v>115</v>
       </c>
       <c r="AW13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX13" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ13">
         <v>11683966970</v>
       </c>
       <c r="BI13" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK13" t="s">
         <v>735</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>737</v>
-      </c>
       <c r="BL13" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="BM13" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="BN13" t="s">
         <v>157</v>
       </c>
       <c r="BO13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="BU13" t="s">
         <v>290</v>
       </c>
       <c r="BV13" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="BX13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE13" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF13">
-        <v>112</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:84">
@@ -5947,7 +5941,7 @@
         <v>90</v>
       </c>
       <c r="O14" s="2">
-        <v>45338.65645833333</v>
+        <v>45338</v>
       </c>
       <c r="P14" t="s">
         <v>93</v>
@@ -6022,10 +6016,10 @@
         <v>454</v>
       </c>
       <c r="AQ14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AR14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AS14">
         <v>22299819</v>
@@ -6034,76 +6028,76 @@
         <v>16</v>
       </c>
       <c r="AU14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV14">
         <v>115</v>
       </c>
       <c r="AW14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AY14" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AZ14">
         <v>12682428703</v>
       </c>
       <c r="BI14" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK14" t="s">
         <v>735</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>737</v>
-      </c>
       <c r="BL14" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="BM14" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="BN14" t="s">
         <v>158</v>
       </c>
       <c r="BO14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP14" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ14" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="BU14" t="s">
         <v>291</v>
       </c>
       <c r="BV14" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="BX14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE14" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF14">
-        <v>112</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:84">
@@ -6150,7 +6144,7 @@
         <v>90</v>
       </c>
       <c r="O15" s="2">
-        <v>45338.65053240741</v>
+        <v>45338</v>
       </c>
       <c r="P15" t="s">
         <v>98</v>
@@ -6225,10 +6219,10 @@
         <v>454</v>
       </c>
       <c r="AQ15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AR15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS15">
         <v>14763438</v>
@@ -6237,76 +6231,76 @@
         <v>16</v>
       </c>
       <c r="AU15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV15">
         <v>115</v>
       </c>
       <c r="AW15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AY15" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AZ15">
         <v>602394767</v>
       </c>
       <c r="BI15" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK15" t="s">
         <v>735</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>737</v>
-      </c>
       <c r="BL15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="BM15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="BN15" t="s">
         <v>159</v>
       </c>
       <c r="BO15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP15" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ15" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR15" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS15" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT15" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="BU15" t="s">
         <v>292</v>
       </c>
       <c r="BV15" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="BX15" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ15" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE15" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF15">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:84">
@@ -6353,7 +6347,7 @@
         <v>90</v>
       </c>
       <c r="O16" s="2">
-        <v>45338.64767361111</v>
+        <v>45338</v>
       </c>
       <c r="P16" t="s">
         <v>99</v>
@@ -6428,10 +6422,10 @@
         <v>455</v>
       </c>
       <c r="AQ16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AR16" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS16">
         <v>21769773</v>
@@ -6440,76 +6434,76 @@
         <v>16</v>
       </c>
       <c r="AU16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV16">
         <v>115</v>
       </c>
       <c r="AW16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX16" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY16" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ16">
         <v>48617678810</v>
       </c>
       <c r="BI16" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK16" t="s">
         <v>735</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>737</v>
-      </c>
       <c r="BL16" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="BM16" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="BN16" t="s">
         <v>160</v>
       </c>
       <c r="BO16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="BU16" t="s">
         <v>293</v>
       </c>
       <c r="BV16" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="BX16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE16" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF16">
-        <v>112</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:84">
@@ -6556,7 +6550,7 @@
         <v>90</v>
       </c>
       <c r="O17" s="2">
-        <v>45338.64482638889</v>
+        <v>45338</v>
       </c>
       <c r="P17" t="s">
         <v>91</v>
@@ -6631,10 +6625,10 @@
         <v>454</v>
       </c>
       <c r="AQ17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AR17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS17">
         <v>18946164</v>
@@ -6643,76 +6637,76 @@
         <v>16</v>
       </c>
       <c r="AU17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV17">
         <v>115</v>
       </c>
       <c r="AW17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ17">
         <v>11683966970</v>
       </c>
       <c r="BI17" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK17" t="s">
         <v>735</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>737</v>
-      </c>
       <c r="BL17" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="BM17" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="BN17" t="s">
         <v>161</v>
       </c>
       <c r="BO17" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP17" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ17" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="BU17" t="s">
         <v>294</v>
       </c>
       <c r="BV17" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="BX17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE17" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF17">
-        <v>112</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:84">
@@ -6759,7 +6753,7 @@
         <v>90</v>
       </c>
       <c r="O18" s="2">
-        <v>45338.6442824074</v>
+        <v>45338</v>
       </c>
       <c r="P18" t="s">
         <v>95</v>
@@ -6834,10 +6828,10 @@
         <v>458</v>
       </c>
       <c r="AQ18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AR18" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS18">
         <v>20990800</v>
@@ -6846,76 +6840,76 @@
         <v>16</v>
       </c>
       <c r="AU18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV18">
         <v>115</v>
       </c>
       <c r="AW18" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX18" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AY18" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AZ18">
         <v>83397868068</v>
       </c>
       <c r="BI18" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK18" t="s">
         <v>735</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>737</v>
-      </c>
       <c r="BL18" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="BM18" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="BN18" t="s">
         <v>162</v>
       </c>
       <c r="BO18" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP18" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ18" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR18" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS18" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="BU18" t="s">
         <v>295</v>
       </c>
       <c r="BV18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="BX18" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ18" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE18" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF18">
-        <v>112</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:84">
@@ -6962,7 +6956,7 @@
         <v>90</v>
       </c>
       <c r="O19" s="2">
-        <v>45338.64195601852</v>
+        <v>45338</v>
       </c>
       <c r="P19" t="s">
         <v>93</v>
@@ -7037,10 +7031,10 @@
         <v>459</v>
       </c>
       <c r="AQ19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AR19" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS19">
         <v>23980136</v>
@@ -7049,76 +7043,76 @@
         <v>16</v>
       </c>
       <c r="AU19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV19">
         <v>115</v>
       </c>
       <c r="AW19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX19" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY19" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ19">
         <v>33829435819</v>
       </c>
       <c r="BI19" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK19" t="s">
         <v>735</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>737</v>
-      </c>
       <c r="BL19" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="BM19" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="BN19" t="s">
         <v>163</v>
       </c>
       <c r="BO19" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP19" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ19" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="BU19" t="s">
         <v>296</v>
       </c>
       <c r="BV19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="BX19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE19" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF19">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:84">
@@ -7165,7 +7159,7 @@
         <v>90</v>
       </c>
       <c r="O20" s="2">
-        <v>45338.6391087963</v>
+        <v>45338</v>
       </c>
       <c r="P20" t="s">
         <v>95</v>
@@ -7240,10 +7234,10 @@
         <v>455</v>
       </c>
       <c r="AQ20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AR20" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS20">
         <v>14727564</v>
@@ -7252,76 +7246,76 @@
         <v>16</v>
       </c>
       <c r="AU20" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV20">
         <v>115</v>
       </c>
       <c r="AW20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX20" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY20" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ20">
         <v>48617678810</v>
       </c>
       <c r="BI20" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK20" t="s">
         <v>735</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>737</v>
-      </c>
       <c r="BL20" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="BM20" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="BN20" t="s">
         <v>164</v>
       </c>
       <c r="BO20" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ20" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT20" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="BU20" t="s">
         <v>297</v>
       </c>
       <c r="BV20" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="BX20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE20" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF20">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:84">
@@ -7368,7 +7362,7 @@
         <v>90</v>
       </c>
       <c r="O21" s="2">
-        <v>45338.63162037037</v>
+        <v>45338</v>
       </c>
       <c r="P21" t="s">
         <v>97</v>
@@ -7443,10 +7437,10 @@
         <v>454</v>
       </c>
       <c r="AQ21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AR21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS21">
         <v>17908175</v>
@@ -7455,76 +7449,76 @@
         <v>16</v>
       </c>
       <c r="AU21" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV21">
         <v>115</v>
       </c>
       <c r="AW21" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX21" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AY21" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AZ21">
         <v>13018609727</v>
       </c>
       <c r="BI21" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK21" t="s">
         <v>735</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>737</v>
-      </c>
       <c r="BL21" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="BM21" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="BN21" t="s">
         <v>165</v>
       </c>
       <c r="BO21" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP21" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ21" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT21" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="BU21" t="s">
         <v>298</v>
       </c>
       <c r="BV21" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="BX21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE21" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF21">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:84">
@@ -7571,7 +7565,7 @@
         <v>90</v>
       </c>
       <c r="O22" s="2">
-        <v>45338.62827546296</v>
+        <v>45338</v>
       </c>
       <c r="P22" t="s">
         <v>95</v>
@@ -7646,10 +7640,10 @@
         <v>454</v>
       </c>
       <c r="AQ22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AR22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS22">
         <v>15754853</v>
@@ -7658,76 +7652,76 @@
         <v>16</v>
       </c>
       <c r="AU22" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV22">
         <v>115</v>
       </c>
       <c r="AW22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX22" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AY22" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AZ22">
         <v>10090735757</v>
       </c>
       <c r="BI22" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK22" t="s">
         <v>735</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>737</v>
-      </c>
       <c r="BL22" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="BM22" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="BN22" t="s">
         <v>166</v>
       </c>
       <c r="BO22" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP22" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ22" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT22" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="BU22" t="s">
         <v>299</v>
       </c>
       <c r="BV22" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="BX22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE22" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF22">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:84">
@@ -7774,7 +7768,7 @@
         <v>90</v>
       </c>
       <c r="O23" s="2">
-        <v>45338.62636574074</v>
+        <v>45338</v>
       </c>
       <c r="P23" t="s">
         <v>98</v>
@@ -7849,10 +7843,10 @@
         <v>455</v>
       </c>
       <c r="AQ23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR23" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS23">
         <v>19267594</v>
@@ -7861,76 +7855,76 @@
         <v>16</v>
       </c>
       <c r="AU23" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV23">
         <v>115</v>
       </c>
       <c r="AW23" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY23" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ23">
         <v>33829435819</v>
       </c>
       <c r="BI23" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK23" t="s">
         <v>735</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>737</v>
-      </c>
       <c r="BL23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="BM23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="BN23" t="s">
         <v>167</v>
       </c>
       <c r="BO23" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT23" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BU23" t="s">
         <v>300</v>
       </c>
       <c r="BV23" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="BX23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE23" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF23">
-        <v>112</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:84">
@@ -7977,7 +7971,7 @@
         <v>90</v>
       </c>
       <c r="O24" s="2">
-        <v>45338.62269675926</v>
+        <v>45338</v>
       </c>
       <c r="P24" t="s">
         <v>99</v>
@@ -8052,10 +8046,10 @@
         <v>455</v>
       </c>
       <c r="AQ24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AR24" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS24">
         <v>23979286</v>
@@ -8064,76 +8058,76 @@
         <v>16</v>
       </c>
       <c r="AU24" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV24">
         <v>115</v>
       </c>
       <c r="AW24" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX24" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY24" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ24">
         <v>48617678810</v>
       </c>
       <c r="BI24" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK24" t="s">
         <v>735</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>737</v>
-      </c>
       <c r="BL24" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="BM24" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="BN24" t="s">
         <v>168</v>
       </c>
       <c r="BO24" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP24" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ24" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR24" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS24" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT24" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="BU24" t="s">
         <v>301</v>
       </c>
       <c r="BV24" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="BX24" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ24" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE24" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF24">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:84">
@@ -8180,7 +8174,7 @@
         <v>90</v>
       </c>
       <c r="O25" s="2">
-        <v>45338.62238425926</v>
+        <v>45338</v>
       </c>
       <c r="P25" t="s">
         <v>100</v>
@@ -8252,13 +8246,13 @@
         <v>615</v>
       </c>
       <c r="AP25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AQ25" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AR25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS25">
         <v>14712318</v>
@@ -8267,76 +8261,76 @@
         <v>16</v>
       </c>
       <c r="AU25" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV25">
         <v>115</v>
       </c>
       <c r="AW25" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX25" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AY25" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AZ25">
         <v>5612293925</v>
       </c>
       <c r="BI25" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK25" t="s">
         <v>735</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>737</v>
-      </c>
       <c r="BL25" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="BM25" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="BN25" t="s">
         <v>169</v>
       </c>
       <c r="BO25" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP25" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ25" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR25" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS25" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT25" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="BU25" t="s">
         <v>302</v>
       </c>
       <c r="BV25" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="BX25" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ25" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE25" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF25">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:84">
@@ -8383,7 +8377,7 @@
         <v>90</v>
       </c>
       <c r="O26" s="2">
-        <v>45338.6213425926</v>
+        <v>45338</v>
       </c>
       <c r="P26" t="s">
         <v>93</v>
@@ -8458,10 +8452,10 @@
         <v>458</v>
       </c>
       <c r="AQ26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AR26" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS26">
         <v>14698214</v>
@@ -8470,76 +8464,76 @@
         <v>16</v>
       </c>
       <c r="AU26" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV26">
         <v>115</v>
       </c>
       <c r="AW26" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX26" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AY26" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AZ26">
         <v>83397868068</v>
       </c>
       <c r="BI26" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK26" t="s">
         <v>735</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>737</v>
-      </c>
       <c r="BL26" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="BM26" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="BN26" t="s">
         <v>170</v>
       </c>
       <c r="BO26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP26" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ26" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR26" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS26" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT26" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="BU26" t="s">
         <v>303</v>
       </c>
       <c r="BV26" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="BX26" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ26" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE26" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF26">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:84">
@@ -8586,7 +8580,7 @@
         <v>90</v>
       </c>
       <c r="O27" s="2">
-        <v>45338.61597222222</v>
+        <v>45338</v>
       </c>
       <c r="P27" t="s">
         <v>99</v>
@@ -8661,10 +8655,10 @@
         <v>457</v>
       </c>
       <c r="AQ27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AR27" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS27">
         <v>23977732</v>
@@ -8673,76 +8667,76 @@
         <v>16</v>
       </c>
       <c r="AU27" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV27">
         <v>115</v>
       </c>
       <c r="AW27" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX27" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY27" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ27">
         <v>11683966970</v>
       </c>
       <c r="BI27" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK27" t="s">
         <v>735</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>737</v>
-      </c>
       <c r="BL27" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="BM27" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="BN27" t="s">
         <v>171</v>
       </c>
       <c r="BO27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP27" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ27" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT27" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="BU27" t="s">
         <v>304</v>
       </c>
       <c r="BV27" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="BX27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE27" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF27">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:84">
@@ -8789,7 +8783,7 @@
         <v>90</v>
       </c>
       <c r="O28" s="2">
-        <v>45338.61557870371</v>
+        <v>45338</v>
       </c>
       <c r="P28" t="s">
         <v>91</v>
@@ -8864,10 +8858,10 @@
         <v>455</v>
       </c>
       <c r="AQ28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AR28" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS28">
         <v>23979643</v>
@@ -8876,76 +8870,76 @@
         <v>16</v>
       </c>
       <c r="AU28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV28">
         <v>115</v>
       </c>
       <c r="AW28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ28">
         <v>33829435819</v>
       </c>
       <c r="BI28" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK28" t="s">
         <v>735</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>737</v>
-      </c>
       <c r="BL28" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="BM28" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="BN28" t="s">
         <v>172</v>
       </c>
       <c r="BO28" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP28" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ28" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR28" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS28" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="BU28" t="s">
         <v>305</v>
       </c>
       <c r="BV28" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="BX28" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ28" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE28" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF28">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:84">
@@ -8992,7 +8986,7 @@
         <v>90</v>
       </c>
       <c r="O29" s="2">
-        <v>45338.61211805556</v>
+        <v>45338</v>
       </c>
       <c r="P29" t="s">
         <v>92</v>
@@ -9067,10 +9061,10 @@
         <v>455</v>
       </c>
       <c r="AQ29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AR29" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS29">
         <v>18792695</v>
@@ -9079,76 +9073,76 @@
         <v>16</v>
       </c>
       <c r="AU29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV29">
         <v>115</v>
       </c>
       <c r="AW29" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX29" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY29" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ29">
         <v>33829435819</v>
       </c>
       <c r="BI29" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK29" t="s">
         <v>735</v>
       </c>
-      <c r="BJ29" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>737</v>
-      </c>
       <c r="BL29" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="BM29" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="BN29" t="s">
         <v>173</v>
       </c>
       <c r="BO29" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP29" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT29" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="BU29" t="s">
         <v>306</v>
       </c>
       <c r="BV29" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="BX29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE29" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF29">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:84">
@@ -9195,7 +9189,7 @@
         <v>90</v>
       </c>
       <c r="O30" s="2">
-        <v>45338.61189814815</v>
+        <v>45338</v>
       </c>
       <c r="P30" t="s">
         <v>100</v>
@@ -9270,10 +9264,10 @@
         <v>458</v>
       </c>
       <c r="AQ30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AR30" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS30">
         <v>15909283</v>
@@ -9282,76 +9276,76 @@
         <v>16</v>
       </c>
       <c r="AU30" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV30">
         <v>115</v>
       </c>
       <c r="AW30" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX30" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ30">
         <v>11683966970</v>
       </c>
       <c r="BI30" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK30" t="s">
         <v>735</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>737</v>
-      </c>
       <c r="BL30" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="BM30" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="BN30" t="s">
         <v>174</v>
       </c>
       <c r="BO30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP30" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ30" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR30" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS30" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="BU30" t="s">
         <v>307</v>
       </c>
       <c r="BV30" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="BX30" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ30" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE30" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF30">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:84">
@@ -9398,7 +9392,7 @@
         <v>90</v>
       </c>
       <c r="O31" s="2">
-        <v>45338.61072916666</v>
+        <v>45338</v>
       </c>
       <c r="P31" t="s">
         <v>95</v>
@@ -9473,10 +9467,10 @@
         <v>458</v>
       </c>
       <c r="AQ31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AR31" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS31">
         <v>16435176</v>
@@ -9485,76 +9479,76 @@
         <v>16</v>
       </c>
       <c r="AU31" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV31">
         <v>115</v>
       </c>
       <c r="AW31" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX31" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AY31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AZ31">
         <v>83397868068</v>
       </c>
       <c r="BI31" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK31" t="s">
         <v>735</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>737</v>
-      </c>
       <c r="BL31" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="BM31" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="BN31" t="s">
         <v>175</v>
       </c>
       <c r="BO31" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP31" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ31" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT31" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="BU31" t="s">
         <v>308</v>
       </c>
       <c r="BV31" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="BX31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE31" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF31">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:84">
@@ -9601,7 +9595,7 @@
         <v>90</v>
       </c>
       <c r="O32" s="2">
-        <v>45338.60965277778</v>
+        <v>45338</v>
       </c>
       <c r="P32" t="s">
         <v>91</v>
@@ -9676,10 +9670,10 @@
         <v>455</v>
       </c>
       <c r="AQ32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AR32" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS32">
         <v>22664261</v>
@@ -9688,76 +9682,76 @@
         <v>16</v>
       </c>
       <c r="AU32" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV32">
         <v>115</v>
       </c>
       <c r="AW32" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX32" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY32" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ32">
         <v>48617678810</v>
       </c>
       <c r="BI32" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK32" t="s">
         <v>735</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>737</v>
-      </c>
       <c r="BL32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="BM32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="BN32" t="s">
         <v>176</v>
       </c>
       <c r="BO32" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP32" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ32" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR32" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS32" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT32" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="BU32" t="s">
         <v>309</v>
       </c>
       <c r="BV32" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="BX32" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ32" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE32" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF32">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:84">
@@ -9804,7 +9798,7 @@
         <v>90</v>
       </c>
       <c r="O33" s="2">
-        <v>45338.60827546296</v>
+        <v>45338</v>
       </c>
       <c r="P33" t="s">
         <v>91</v>
@@ -9879,10 +9873,10 @@
         <v>454</v>
       </c>
       <c r="AQ33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AR33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS33">
         <v>16132691</v>
@@ -9891,76 +9885,76 @@
         <v>16</v>
       </c>
       <c r="AU33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV33">
         <v>115</v>
       </c>
       <c r="AW33" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX33" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AY33" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AZ33">
         <v>29497414870</v>
       </c>
       <c r="BI33" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK33" t="s">
         <v>735</v>
       </c>
-      <c r="BJ33" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>737</v>
-      </c>
       <c r="BL33" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="BM33" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="BN33" t="s">
         <v>177</v>
       </c>
       <c r="BO33" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP33" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ33" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="BU33" t="s">
         <v>310</v>
       </c>
       <c r="BV33" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="BX33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE33" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF33">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:84">
@@ -10007,7 +10001,7 @@
         <v>90</v>
       </c>
       <c r="O34" s="2">
-        <v>45338.59743055556</v>
+        <v>45338</v>
       </c>
       <c r="P34" t="s">
         <v>97</v>
@@ -10082,10 +10076,10 @@
         <v>458</v>
       </c>
       <c r="AQ34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AR34" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS34">
         <v>16511746</v>
@@ -10094,76 +10088,76 @@
         <v>16</v>
       </c>
       <c r="AU34" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV34">
         <v>115</v>
       </c>
       <c r="AW34" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX34" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AY34" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AZ34">
         <v>83397868068</v>
       </c>
       <c r="BI34" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK34" t="s">
         <v>735</v>
       </c>
-      <c r="BJ34" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>737</v>
-      </c>
       <c r="BL34" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="BM34" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="BN34" t="s">
         <v>178</v>
       </c>
       <c r="BO34" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP34" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ34" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR34" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS34" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT34" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="BU34" t="s">
         <v>311</v>
       </c>
       <c r="BV34" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="BX34" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ34" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE34" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF34">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:84">
@@ -10210,7 +10204,7 @@
         <v>90</v>
       </c>
       <c r="O35" s="2">
-        <v>45338.59365740741</v>
+        <v>45338</v>
       </c>
       <c r="P35" t="s">
         <v>98</v>
@@ -10285,10 +10279,10 @@
         <v>455</v>
       </c>
       <c r="AQ35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AR35" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS35">
         <v>23978847</v>
@@ -10297,76 +10291,76 @@
         <v>16</v>
       </c>
       <c r="AU35" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV35">
         <v>115</v>
       </c>
       <c r="AW35" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX35" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY35" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ35">
         <v>11683966970</v>
       </c>
       <c r="BI35" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK35" t="s">
         <v>735</v>
       </c>
-      <c r="BJ35" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>737</v>
-      </c>
       <c r="BL35" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="BM35" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="BN35" t="s">
         <v>179</v>
       </c>
       <c r="BO35" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP35" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ35" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT35" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="BU35" t="s">
         <v>312</v>
       </c>
       <c r="BV35" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="BX35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE35" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF35">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:84">
@@ -10413,7 +10407,7 @@
         <v>90</v>
       </c>
       <c r="O36" s="2">
-        <v>45338.58576388889</v>
+        <v>45338</v>
       </c>
       <c r="P36" t="s">
         <v>101</v>
@@ -10488,10 +10482,10 @@
         <v>460</v>
       </c>
       <c r="AQ36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AR36" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS36">
         <v>15082714</v>
@@ -10500,76 +10494,76 @@
         <v>16</v>
       </c>
       <c r="AU36" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV36">
         <v>115</v>
       </c>
       <c r="AW36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX36" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY36" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ36">
         <v>48617678810</v>
       </c>
       <c r="BI36" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK36" t="s">
         <v>735</v>
       </c>
-      <c r="BJ36" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>737</v>
-      </c>
       <c r="BL36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="BM36" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="BN36" t="s">
         <v>180</v>
       </c>
       <c r="BO36" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP36" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ36" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR36" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS36" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BU36" t="s">
         <v>313</v>
       </c>
       <c r="BV36" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="BX36" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ36" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE36" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF36">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:84">
@@ -10616,7 +10610,7 @@
         <v>90</v>
       </c>
       <c r="O37" s="2">
-        <v>45338.5820949074</v>
+        <v>45338</v>
       </c>
       <c r="P37" t="s">
         <v>95</v>
@@ -10691,10 +10685,10 @@
         <v>455</v>
       </c>
       <c r="AQ37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AR37" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS37">
         <v>21914402</v>
@@ -10703,76 +10697,76 @@
         <v>16</v>
       </c>
       <c r="AU37" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV37">
         <v>115</v>
       </c>
       <c r="AW37" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX37" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY37" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ37">
         <v>48617678810</v>
       </c>
       <c r="BI37" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK37" t="s">
         <v>735</v>
       </c>
-      <c r="BJ37" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>737</v>
-      </c>
       <c r="BL37" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="BM37" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="BN37" t="s">
         <v>181</v>
       </c>
       <c r="BO37" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP37" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ37" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR37" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS37" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT37" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="BU37" t="s">
         <v>314</v>
       </c>
       <c r="BV37" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="BX37" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ37" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE37" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF37">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:84">
@@ -10819,7 +10813,7 @@
         <v>90</v>
       </c>
       <c r="O38" s="2">
-        <v>45338.57880787037</v>
+        <v>45338</v>
       </c>
       <c r="P38" t="s">
         <v>93</v>
@@ -10894,10 +10888,10 @@
         <v>455</v>
       </c>
       <c r="AQ38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AR38" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS38">
         <v>23518631</v>
@@ -10906,76 +10900,76 @@
         <v>16</v>
       </c>
       <c r="AU38" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV38">
         <v>115</v>
       </c>
       <c r="AW38" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX38" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY38" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ38">
         <v>48617678810</v>
       </c>
       <c r="BI38" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK38" t="s">
         <v>735</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>737</v>
-      </c>
       <c r="BL38" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="BM38" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="BN38" t="s">
         <v>182</v>
       </c>
       <c r="BO38" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP38" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ38" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR38" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS38" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT38" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="BU38" t="s">
         <v>315</v>
       </c>
       <c r="BV38" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="BX38" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ38" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE38" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF38">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:84">
@@ -11022,7 +11016,7 @@
         <v>90</v>
       </c>
       <c r="O39" s="2">
-        <v>45338.57314814815</v>
+        <v>45338</v>
       </c>
       <c r="P39" t="s">
         <v>99</v>
@@ -11097,10 +11091,10 @@
         <v>460</v>
       </c>
       <c r="AQ39" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AR39" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS39">
         <v>15268957</v>
@@ -11109,76 +11103,76 @@
         <v>16</v>
       </c>
       <c r="AU39" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV39">
         <v>115</v>
       </c>
       <c r="AW39" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX39" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY39" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ39">
         <v>33829435819</v>
       </c>
       <c r="BI39" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK39" t="s">
         <v>735</v>
       </c>
-      <c r="BJ39" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>737</v>
-      </c>
       <c r="BL39" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="BM39" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="BN39" t="s">
         <v>183</v>
       </c>
       <c r="BO39" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP39" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ39" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR39" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS39" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT39" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="BU39" t="s">
         <v>316</v>
       </c>
       <c r="BV39" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="BX39" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ39" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE39" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF39">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:84">
@@ -11225,7 +11219,7 @@
         <v>90</v>
       </c>
       <c r="O40" s="2">
-        <v>45338.56990740741</v>
+        <v>45338</v>
       </c>
       <c r="P40" t="s">
         <v>96</v>
@@ -11300,10 +11294,10 @@
         <v>455</v>
       </c>
       <c r="AQ40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AR40" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS40">
         <v>20455583</v>
@@ -11312,76 +11306,76 @@
         <v>16</v>
       </c>
       <c r="AU40" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV40">
         <v>115</v>
       </c>
       <c r="AW40" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX40" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY40" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ40">
         <v>11683966970</v>
       </c>
       <c r="BI40" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK40" t="s">
         <v>735</v>
       </c>
-      <c r="BJ40" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK40" t="s">
-        <v>737</v>
-      </c>
       <c r="BL40" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="BM40" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="BN40" t="s">
         <v>184</v>
       </c>
       <c r="BO40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP40" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ40" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR40" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS40" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT40" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="BU40" t="s">
         <v>317</v>
       </c>
       <c r="BV40" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="BX40" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ40" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE40" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF40">
-        <v>115</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:84">
@@ -11428,7 +11422,7 @@
         <v>90</v>
       </c>
       <c r="O41" s="2">
-        <v>45338.56328703704</v>
+        <v>45338</v>
       </c>
       <c r="P41" t="s">
         <v>100</v>
@@ -11503,10 +11497,10 @@
         <v>459</v>
       </c>
       <c r="AQ41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AR41" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS41">
         <v>14351390</v>
@@ -11515,76 +11509,76 @@
         <v>16</v>
       </c>
       <c r="AU41" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV41">
         <v>115</v>
       </c>
       <c r="AW41" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX41" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AY41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AZ41">
         <v>36749495800</v>
       </c>
       <c r="BI41" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK41" t="s">
         <v>735</v>
       </c>
-      <c r="BJ41" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK41" t="s">
-        <v>737</v>
-      </c>
       <c r="BL41" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="BM41" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="BN41" t="s">
         <v>185</v>
       </c>
       <c r="BO41" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP41" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ41" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR41" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS41" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT41" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="BU41" t="s">
         <v>318</v>
       </c>
       <c r="BV41" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="BX41" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ41" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE41" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF41">
-        <v>115</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:84">
@@ -11631,7 +11625,7 @@
         <v>90</v>
       </c>
       <c r="O42" s="2">
-        <v>45338.55164351852</v>
+        <v>45338</v>
       </c>
       <c r="P42" t="s">
         <v>93</v>
@@ -11706,10 +11700,10 @@
         <v>455</v>
       </c>
       <c r="AQ42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AR42" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS42">
         <v>16959381</v>
@@ -11718,76 +11712,76 @@
         <v>16</v>
       </c>
       <c r="AU42" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV42">
         <v>115</v>
       </c>
       <c r="AW42" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX42" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY42" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ42">
         <v>11683966970</v>
       </c>
       <c r="BI42" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK42" t="s">
         <v>735</v>
       </c>
-      <c r="BJ42" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>737</v>
-      </c>
       <c r="BL42" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="BM42" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="BN42" t="s">
         <v>186</v>
       </c>
       <c r="BO42" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP42" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ42" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR42" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS42" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT42" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="BU42" t="s">
         <v>319</v>
       </c>
       <c r="BV42" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="BX42" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ42" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE42" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF42">
-        <v>115</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:84">
@@ -11834,7 +11828,7 @@
         <v>90</v>
       </c>
       <c r="O43" s="2">
-        <v>45338.53658564815</v>
+        <v>45338</v>
       </c>
       <c r="P43" t="s">
         <v>94</v>
@@ -11909,10 +11903,10 @@
         <v>454</v>
       </c>
       <c r="AQ43" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AR43" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS43">
         <v>13799671</v>
@@ -11921,76 +11915,76 @@
         <v>16</v>
       </c>
       <c r="AU43" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV43">
         <v>115</v>
       </c>
       <c r="AW43" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX43" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY43" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ43">
         <v>11683966970</v>
       </c>
       <c r="BI43" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK43" t="s">
         <v>735</v>
       </c>
-      <c r="BJ43" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK43" t="s">
-        <v>737</v>
-      </c>
       <c r="BL43" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="BM43" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="BN43" t="s">
         <v>187</v>
       </c>
       <c r="BO43" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP43" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ43" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR43" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS43" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT43" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="BU43" t="s">
         <v>320</v>
       </c>
       <c r="BV43" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="BX43" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ43" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE43" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF43">
-        <v>115</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:84">
@@ -12037,7 +12031,7 @@
         <v>90</v>
       </c>
       <c r="O44" s="2">
-        <v>45338.53087962963</v>
+        <v>45338</v>
       </c>
       <c r="P44" t="s">
         <v>95</v>
@@ -12112,10 +12106,10 @@
         <v>464</v>
       </c>
       <c r="AQ44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AR44" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS44">
         <v>19563966</v>
@@ -12124,76 +12118,76 @@
         <v>16</v>
       </c>
       <c r="AU44" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV44">
         <v>115</v>
       </c>
       <c r="AW44" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX44" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AY44" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AZ44">
         <v>29497414870</v>
       </c>
       <c r="BI44" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK44" t="s">
         <v>735</v>
       </c>
-      <c r="BJ44" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK44" t="s">
-        <v>737</v>
-      </c>
       <c r="BL44" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="BM44" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="BN44" t="s">
         <v>173</v>
       </c>
       <c r="BO44" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP44" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ44" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR44" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS44" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT44" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="BU44" t="s">
         <v>321</v>
       </c>
       <c r="BV44" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="BX44" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ44" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE44" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF44">
-        <v>115</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:84">
@@ -12240,7 +12234,7 @@
         <v>90</v>
       </c>
       <c r="O45" s="2">
-        <v>45338.52077546297</v>
+        <v>45338</v>
       </c>
       <c r="P45" t="s">
         <v>97</v>
@@ -12315,10 +12309,10 @@
         <v>457</v>
       </c>
       <c r="AQ45" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AR45" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS45">
         <v>17853486</v>
@@ -12327,76 +12321,76 @@
         <v>16</v>
       </c>
       <c r="AU45" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV45">
         <v>115</v>
       </c>
       <c r="AW45" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX45" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ45">
         <v>48617678810</v>
       </c>
       <c r="BI45" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK45" t="s">
         <v>735</v>
       </c>
-      <c r="BJ45" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK45" t="s">
-        <v>737</v>
-      </c>
       <c r="BL45" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="BM45" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="BN45" t="s">
         <v>188</v>
       </c>
       <c r="BO45" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP45" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ45" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR45" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS45" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT45" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="BU45" t="s">
         <v>322</v>
       </c>
       <c r="BV45" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="BX45" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ45" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE45" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF45">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:84">
@@ -12443,7 +12437,7 @@
         <v>90</v>
       </c>
       <c r="O46" s="2">
-        <v>45338.51243055556</v>
+        <v>45338</v>
       </c>
       <c r="P46" t="s">
         <v>100</v>
@@ -12518,10 +12512,10 @@
         <v>458</v>
       </c>
       <c r="AQ46" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AR46" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS46">
         <v>21787850</v>
@@ -12530,76 +12524,76 @@
         <v>16</v>
       </c>
       <c r="AU46" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV46">
         <v>115</v>
       </c>
       <c r="AW46" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX46" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AY46" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AZ46">
         <v>29497414870</v>
       </c>
       <c r="BI46" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK46" t="s">
         <v>735</v>
       </c>
-      <c r="BJ46" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK46" t="s">
-        <v>737</v>
-      </c>
       <c r="BL46" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="BM46" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="BN46" t="s">
         <v>189</v>
       </c>
       <c r="BO46" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP46" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ46" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR46" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS46" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT46" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="BU46" t="s">
         <v>323</v>
       </c>
       <c r="BV46" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="BX46" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ46" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE46" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF46">
-        <v>116</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:84">
@@ -12646,7 +12640,7 @@
         <v>90</v>
       </c>
       <c r="O47" s="2">
-        <v>45338.50796296296</v>
+        <v>45338</v>
       </c>
       <c r="P47" t="s">
         <v>100</v>
@@ -12721,10 +12715,10 @@
         <v>454</v>
       </c>
       <c r="AQ47" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AR47" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS47">
         <v>20196683</v>
@@ -12733,76 +12727,76 @@
         <v>16</v>
       </c>
       <c r="AU47" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV47">
         <v>115</v>
       </c>
       <c r="AW47" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX47" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AY47" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AZ47">
         <v>10090735757</v>
       </c>
       <c r="BI47" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK47" t="s">
         <v>735</v>
       </c>
-      <c r="BJ47" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK47" t="s">
-        <v>737</v>
-      </c>
       <c r="BL47" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="BM47" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="BN47" t="s">
         <v>190</v>
       </c>
       <c r="BO47" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP47" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ47" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR47" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS47" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT47" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="BU47" t="s">
         <v>324</v>
       </c>
       <c r="BV47" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="BX47" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ47" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE47" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF47">
-        <v>116</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:84">
@@ -12849,7 +12843,7 @@
         <v>90</v>
       </c>
       <c r="O48" s="2">
-        <v>45338.50600694444</v>
+        <v>45338</v>
       </c>
       <c r="P48" t="s">
         <v>95</v>
@@ -12924,10 +12918,10 @@
         <v>455</v>
       </c>
       <c r="AQ48" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AR48" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS48">
         <v>22019184</v>
@@ -12936,76 +12930,76 @@
         <v>16</v>
       </c>
       <c r="AU48" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV48">
         <v>115</v>
       </c>
       <c r="AW48" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX48" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY48" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ48">
         <v>33829435819</v>
       </c>
       <c r="BI48" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ48" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK48" t="s">
         <v>735</v>
       </c>
-      <c r="BJ48" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK48" t="s">
-        <v>737</v>
-      </c>
       <c r="BL48" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="BM48" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="BN48" t="s">
         <v>191</v>
       </c>
       <c r="BO48" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP48" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ48" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR48" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS48" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT48" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="BU48" t="s">
         <v>325</v>
       </c>
       <c r="BV48" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="BX48" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ48" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE48" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF48">
-        <v>116</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:84">
@@ -13052,7 +13046,7 @@
         <v>90</v>
       </c>
       <c r="O49" s="2">
-        <v>45338.49626157407</v>
+        <v>45338</v>
       </c>
       <c r="P49" t="s">
         <v>99</v>
@@ -13127,10 +13121,10 @@
         <v>457</v>
       </c>
       <c r="AQ49" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AR49" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS49">
         <v>14437906</v>
@@ -13139,76 +13133,76 @@
         <v>16</v>
       </c>
       <c r="AU49" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV49">
         <v>115</v>
       </c>
       <c r="AW49" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX49" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AY49" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AZ49">
         <v>29497414870</v>
       </c>
       <c r="BI49" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK49" t="s">
         <v>735</v>
       </c>
-      <c r="BJ49" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK49" t="s">
-        <v>737</v>
-      </c>
       <c r="BL49" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BM49" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BN49" t="s">
         <v>192</v>
       </c>
       <c r="BO49" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP49" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ49" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR49" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS49" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT49" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="BU49" t="s">
         <v>326</v>
       </c>
       <c r="BV49" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="BX49" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ49" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE49" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF49">
-        <v>116</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:84">
@@ -13255,7 +13249,7 @@
         <v>90</v>
       </c>
       <c r="O50" s="2">
-        <v>45338.49484953703</v>
+        <v>45338</v>
       </c>
       <c r="P50" t="s">
         <v>93</v>
@@ -13330,10 +13324,10 @@
         <v>464</v>
       </c>
       <c r="AQ50" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AR50" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS50">
         <v>23976088</v>
@@ -13342,76 +13336,76 @@
         <v>16</v>
       </c>
       <c r="AU50" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV50">
         <v>115</v>
       </c>
       <c r="AW50" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX50" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AY50" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AZ50">
         <v>29497414870</v>
       </c>
       <c r="BI50" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ50" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK50" t="s">
         <v>735</v>
       </c>
-      <c r="BJ50" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK50" t="s">
-        <v>737</v>
-      </c>
       <c r="BL50" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="BM50" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="BN50" t="s">
         <v>193</v>
       </c>
       <c r="BO50" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP50" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ50" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR50" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS50" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT50" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="BU50" t="s">
         <v>327</v>
       </c>
       <c r="BV50" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="BX50" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ50" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE50" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF50">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:84">
@@ -13458,7 +13452,7 @@
         <v>90</v>
       </c>
       <c r="O51" s="2">
-        <v>45338.49038194444</v>
+        <v>45338</v>
       </c>
       <c r="P51" t="s">
         <v>98</v>
@@ -13533,10 +13527,10 @@
         <v>455</v>
       </c>
       <c r="AQ51" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AR51" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS51">
         <v>22001062</v>
@@ -13545,76 +13539,76 @@
         <v>16</v>
       </c>
       <c r="AU51" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV51">
         <v>115</v>
       </c>
       <c r="AW51" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX51" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY51" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ51">
         <v>48617678810</v>
       </c>
       <c r="BI51" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK51" t="s">
         <v>735</v>
       </c>
-      <c r="BJ51" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK51" t="s">
-        <v>737</v>
-      </c>
       <c r="BL51" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="BM51" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="BN51" t="s">
         <v>194</v>
       </c>
       <c r="BO51" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP51" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ51" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR51" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS51" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT51" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="BU51" t="s">
         <v>328</v>
       </c>
       <c r="BV51" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="BX51" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ51" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE51" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF51">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:84">
@@ -13661,7 +13655,7 @@
         <v>90</v>
       </c>
       <c r="O52" s="2">
-        <v>45338.48818287037</v>
+        <v>45338</v>
       </c>
       <c r="P52" t="s">
         <v>93</v>
@@ -13736,10 +13730,10 @@
         <v>457</v>
       </c>
       <c r="AQ52" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AR52" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS52">
         <v>18011728</v>
@@ -13748,76 +13742,76 @@
         <v>16</v>
       </c>
       <c r="AU52" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV52">
         <v>115</v>
       </c>
       <c r="AW52" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX52" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AY52" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AZ52">
         <v>48617678810</v>
       </c>
       <c r="BI52" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ52" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK52" t="s">
         <v>735</v>
       </c>
-      <c r="BJ52" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK52" t="s">
-        <v>737</v>
-      </c>
       <c r="BL52" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="BM52" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="BN52" t="s">
         <v>195</v>
       </c>
       <c r="BO52" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP52" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ52" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR52" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS52" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT52" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="BU52" t="s">
         <v>329</v>
       </c>
       <c r="BV52" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="BX52" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ52" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE52" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF52">
-        <v>116</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:84">
@@ -13864,7 +13858,7 @@
         <v>90</v>
       </c>
       <c r="O53" s="2">
-        <v>45338.48486111111</v>
+        <v>45338</v>
       </c>
       <c r="P53" t="s">
         <v>95</v>
@@ -13939,10 +13933,10 @@
         <v>455</v>
       </c>
       <c r="AQ53" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AR53" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS53">
         <v>15383317</v>
@@ -13951,76 +13945,76 @@
         <v>16</v>
       </c>
       <c r="AU53" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV53">
         <v>115</v>
       </c>
       <c r="AW53" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX53" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AY53" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AZ53">
         <v>8839629939</v>
       </c>
       <c r="BI53" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ53" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK53" t="s">
         <v>735</v>
       </c>
-      <c r="BJ53" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK53" t="s">
-        <v>737</v>
-      </c>
       <c r="BL53" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="BM53" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="BN53" t="s">
         <v>196</v>
       </c>
       <c r="BO53" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP53" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ53" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR53" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS53" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT53" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="BU53" t="s">
         <v>330</v>
       </c>
       <c r="BV53" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="BX53" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ53" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE53" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF53">
-        <v>117</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:84">
@@ -14067,7 +14061,7 @@
         <v>90</v>
       </c>
       <c r="O54" s="2">
-        <v>45338.48190972222</v>
+        <v>45338</v>
       </c>
       <c r="P54" t="s">
         <v>97</v>
@@ -14142,10 +14136,10 @@
         <v>462</v>
       </c>
       <c r="AQ54" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AR54" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS54">
         <v>23764808</v>
@@ -14154,76 +14148,76 @@
         <v>16</v>
       </c>
       <c r="AU54" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV54">
         <v>115</v>
       </c>
       <c r="AW54" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX54" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AY54" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AZ54">
         <v>8913996405</v>
       </c>
       <c r="BI54" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ54" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK54" t="s">
         <v>735</v>
       </c>
-      <c r="BJ54" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK54" t="s">
-        <v>737</v>
-      </c>
       <c r="BL54" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="BM54" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="BN54" t="s">
         <v>197</v>
       </c>
       <c r="BO54" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP54" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ54" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR54" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS54" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT54" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="BU54" t="s">
         <v>331</v>
       </c>
       <c r="BV54" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="BX54" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ54" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE54" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF54">
-        <v>115</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:84">
@@ -14270,7 +14264,7 @@
         <v>90</v>
       </c>
       <c r="O55" s="2">
-        <v>45338.439375</v>
+        <v>45338</v>
       </c>
       <c r="P55" t="s">
         <v>102</v>
@@ -14339,16 +14333,16 @@
         <v>999613544</v>
       </c>
       <c r="AO55" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
       <c r="AP55" t="s">
         <v>460</v>
       </c>
       <c r="AQ55" t="s">
-        <v>680</v>
+        <v>642</v>
       </c>
       <c r="AR55" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS55">
         <v>23956002</v>
@@ -14357,76 +14351,76 @@
         <v>16</v>
       </c>
       <c r="AU55" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV55">
         <v>115</v>
       </c>
       <c r="AW55" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX55" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY55" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ55">
         <v>11683966970</v>
       </c>
       <c r="BI55" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK55" t="s">
         <v>735</v>
       </c>
-      <c r="BJ55" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK55" t="s">
-        <v>737</v>
-      </c>
       <c r="BL55" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="BM55" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="BN55" t="s">
         <v>198</v>
       </c>
       <c r="BO55" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP55" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ55" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR55" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS55" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT55" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="BU55" t="s">
         <v>332</v>
       </c>
       <c r="BV55" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="BX55" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ55" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE55" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF55">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:84">
@@ -14473,7 +14467,7 @@
         <v>90</v>
       </c>
       <c r="O56" s="2">
-        <v>45338.43449074074</v>
+        <v>45338</v>
       </c>
       <c r="P56" t="s">
         <v>95</v>
@@ -14542,16 +14536,16 @@
         <v>991368917</v>
       </c>
       <c r="AO56" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AP56" t="s">
         <v>460</v>
       </c>
       <c r="AQ56" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AR56" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS56">
         <v>15143725</v>
@@ -14560,76 +14554,76 @@
         <v>16</v>
       </c>
       <c r="AU56" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV56">
         <v>115</v>
       </c>
       <c r="AW56" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX56" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY56" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ56">
         <v>33829435819</v>
       </c>
       <c r="BI56" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ56" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK56" t="s">
         <v>735</v>
       </c>
-      <c r="BJ56" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK56" t="s">
-        <v>737</v>
-      </c>
       <c r="BL56" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="BM56" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="BN56" t="s">
         <v>199</v>
       </c>
       <c r="BO56" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP56" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ56" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR56" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS56" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT56" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="BU56" t="s">
         <v>333</v>
       </c>
       <c r="BV56" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="BX56" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ56" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE56" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF56">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:84">
@@ -14676,7 +14670,7 @@
         <v>90</v>
       </c>
       <c r="O57" s="2">
-        <v>45338.42152777778</v>
+        <v>45338</v>
       </c>
       <c r="P57" t="s">
         <v>98</v>
@@ -14745,16 +14739,16 @@
         <v>999905850</v>
       </c>
       <c r="AO57" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AP57" t="s">
         <v>458</v>
       </c>
       <c r="AQ57" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AR57" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS57">
         <v>19322505</v>
@@ -14763,76 +14757,76 @@
         <v>16</v>
       </c>
       <c r="AU57" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV57">
         <v>115</v>
       </c>
       <c r="AW57" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX57" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AY57" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AZ57">
         <v>5612293925</v>
       </c>
       <c r="BI57" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK57" t="s">
         <v>735</v>
       </c>
-      <c r="BJ57" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK57" t="s">
-        <v>737</v>
-      </c>
       <c r="BL57" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="BM57" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="BN57" t="s">
         <v>200</v>
       </c>
       <c r="BO57" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP57" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ57" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR57" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS57" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT57" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="BU57" t="s">
         <v>334</v>
       </c>
       <c r="BV57" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="BX57" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ57" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE57" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF57">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:84">
@@ -14879,7 +14873,7 @@
         <v>90</v>
       </c>
       <c r="O58" s="2">
-        <v>45338.41721064815</v>
+        <v>45338</v>
       </c>
       <c r="P58" t="s">
         <v>100</v>
@@ -14954,10 +14948,10 @@
         <v>455</v>
       </c>
       <c r="AQ58" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AR58" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS58">
         <v>15246231</v>
@@ -14966,76 +14960,76 @@
         <v>16</v>
       </c>
       <c r="AU58" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV58">
         <v>115</v>
       </c>
       <c r="AW58" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX58" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AY58" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AZ58">
         <v>11683966970</v>
       </c>
       <c r="BI58" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK58" t="s">
         <v>735</v>
       </c>
-      <c r="BJ58" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK58" t="s">
-        <v>737</v>
-      </c>
       <c r="BL58" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="BM58" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="BN58" t="s">
         <v>201</v>
       </c>
       <c r="BO58" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP58" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ58" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR58" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS58" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT58" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="BU58" t="s">
         <v>335</v>
       </c>
       <c r="BV58" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="BX58" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ58" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE58" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF58">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:84">
@@ -15082,7 +15076,7 @@
         <v>90</v>
       </c>
       <c r="O59" s="2">
-        <v>45338.41630787037</v>
+        <v>45338</v>
       </c>
       <c r="P59" t="s">
         <v>94</v>
@@ -15151,16 +15145,16 @@
         <v>997466657</v>
       </c>
       <c r="AO59" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP59" t="s">
         <v>460</v>
       </c>
       <c r="AQ59" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AR59" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS59">
         <v>14961687</v>
@@ -15169,76 +15163,76 @@
         <v>16</v>
       </c>
       <c r="AU59" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV59">
         <v>115</v>
       </c>
       <c r="AW59" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX59" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY59" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ59">
         <v>33829435819</v>
       </c>
       <c r="BI59" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ59" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK59" t="s">
         <v>735</v>
       </c>
-      <c r="BJ59" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK59" t="s">
-        <v>737</v>
-      </c>
       <c r="BL59" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="BM59" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="BN59" t="s">
         <v>202</v>
       </c>
       <c r="BO59" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP59" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ59" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR59" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS59" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT59" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="BU59" t="s">
         <v>336</v>
       </c>
       <c r="BV59" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="BX59" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ59" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE59" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF59">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:84">
@@ -15285,7 +15279,7 @@
         <v>90</v>
       </c>
       <c r="O60" s="2">
-        <v>45338.41614583333</v>
+        <v>45338</v>
       </c>
       <c r="P60" t="s">
         <v>92</v>
@@ -15354,16 +15348,16 @@
         <v>985089651</v>
       </c>
       <c r="AO60" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AP60" t="s">
         <v>463</v>
       </c>
       <c r="AQ60" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AR60" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS60">
         <v>13884977</v>
@@ -15372,76 +15366,76 @@
         <v>16</v>
       </c>
       <c r="AU60" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV60">
         <v>115</v>
       </c>
       <c r="AW60" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX60" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AY60" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AZ60">
         <v>68968566100</v>
       </c>
       <c r="BI60" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK60" t="s">
         <v>735</v>
       </c>
-      <c r="BJ60" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK60" t="s">
-        <v>737</v>
-      </c>
       <c r="BL60" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="BM60" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="BN60" t="s">
         <v>203</v>
       </c>
       <c r="BO60" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP60" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ60" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR60" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS60" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT60" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="BU60" t="s">
         <v>337</v>
       </c>
       <c r="BV60" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="BX60" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ60" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE60" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF60">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:84">
@@ -15488,7 +15482,7 @@
         <v>90</v>
       </c>
       <c r="O61" s="2">
-        <v>45338.41402777778</v>
+        <v>45338</v>
       </c>
       <c r="P61" t="s">
         <v>99</v>
@@ -15557,16 +15551,16 @@
         <v>944875409</v>
       </c>
       <c r="AO61" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AP61" t="s">
         <v>455</v>
       </c>
       <c r="AQ61" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AR61" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS61">
         <v>16456207</v>
@@ -15575,76 +15569,76 @@
         <v>16</v>
       </c>
       <c r="AU61" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV61">
         <v>115</v>
       </c>
       <c r="AW61" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX61" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY61" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ61">
         <v>33829435819</v>
       </c>
       <c r="BI61" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ61" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK61" t="s">
         <v>735</v>
       </c>
-      <c r="BJ61" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK61" t="s">
-        <v>737</v>
-      </c>
       <c r="BL61" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="BM61" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="BN61" t="s">
         <v>204</v>
       </c>
       <c r="BO61" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP61" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ61" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR61" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS61" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT61" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="BU61" t="s">
         <v>338</v>
       </c>
       <c r="BV61" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="BX61" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ61" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE61" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF61">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:84">
@@ -15691,7 +15685,7 @@
         <v>90</v>
       </c>
       <c r="O62" s="2">
-        <v>45338.40825231482</v>
+        <v>45338</v>
       </c>
       <c r="P62" t="s">
         <v>100</v>
@@ -15760,16 +15754,16 @@
         <v>996146646</v>
       </c>
       <c r="AO62" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AP62" t="s">
         <v>454</v>
       </c>
       <c r="AQ62" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AR62" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS62">
         <v>18046727</v>
@@ -15778,76 +15772,76 @@
         <v>16</v>
       </c>
       <c r="AU62" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV62">
         <v>115</v>
       </c>
       <c r="AW62" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX62" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY62" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ62">
         <v>33829435819</v>
       </c>
       <c r="BI62" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ62" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK62" t="s">
         <v>735</v>
       </c>
-      <c r="BJ62" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK62" t="s">
-        <v>737</v>
-      </c>
       <c r="BL62" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="BM62" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="BN62" t="s">
         <v>205</v>
       </c>
       <c r="BO62" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP62" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ62" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR62" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS62" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT62" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="BU62" t="s">
         <v>339</v>
       </c>
       <c r="BV62" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="BX62" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ62" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE62" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF62">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:84">
@@ -15894,7 +15888,7 @@
         <v>90</v>
       </c>
       <c r="O63" s="2">
-        <v>45338.40155092593</v>
+        <v>45338</v>
       </c>
       <c r="P63" t="s">
         <v>95</v>
@@ -15963,16 +15957,16 @@
         <v>984377872</v>
       </c>
       <c r="AO63" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AP63" t="s">
         <v>455</v>
       </c>
       <c r="AQ63" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AR63" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS63">
         <v>15194105</v>
@@ -15981,76 +15975,76 @@
         <v>16</v>
       </c>
       <c r="AU63" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV63">
         <v>115</v>
       </c>
       <c r="AW63" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX63" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY63" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ63">
         <v>33829435819</v>
       </c>
       <c r="BI63" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ63" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK63" t="s">
         <v>735</v>
       </c>
-      <c r="BJ63" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK63" t="s">
-        <v>737</v>
-      </c>
       <c r="BL63" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="BM63" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="BN63" t="s">
         <v>206</v>
       </c>
       <c r="BO63" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP63" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ63" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR63" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS63" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT63" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="BU63" t="s">
         <v>340</v>
       </c>
       <c r="BV63" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="BX63" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ63" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE63" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF63">
-        <v>119</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:84">
@@ -16097,7 +16091,7 @@
         <v>90</v>
       </c>
       <c r="O64" s="2">
-        <v>45338.39706018518</v>
+        <v>45338</v>
       </c>
       <c r="P64" t="s">
         <v>99</v>
@@ -16172,10 +16166,10 @@
         <v>464</v>
       </c>
       <c r="AQ64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AR64" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS64">
         <v>13722008</v>
@@ -16184,76 +16178,76 @@
         <v>16</v>
       </c>
       <c r="AU64" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV64">
         <v>115</v>
       </c>
       <c r="AW64" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX64" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY64" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ64">
         <v>33829435819</v>
       </c>
       <c r="BI64" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ64" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK64" t="s">
         <v>735</v>
       </c>
-      <c r="BJ64" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK64" t="s">
-        <v>737</v>
-      </c>
       <c r="BL64" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="BM64" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="BN64" t="s">
         <v>207</v>
       </c>
       <c r="BO64" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP64" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BQ64" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BR64" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS64" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT64" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="BU64" t="s">
         <v>341</v>
       </c>
       <c r="BV64" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="BX64" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ64" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE64" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF64">
-        <v>117</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:84">
@@ -16300,7 +16294,7 @@
         <v>90</v>
       </c>
       <c r="O65" s="2">
-        <v>45338.39563657407</v>
+        <v>45338</v>
       </c>
       <c r="P65" t="s">
         <v>97</v>
@@ -16369,16 +16363,16 @@
         <v>996130323</v>
       </c>
       <c r="AO65" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AP65" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AQ65" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AR65" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS65">
         <v>19954041</v>
@@ -16387,76 +16381,76 @@
         <v>16</v>
       </c>
       <c r="AU65" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV65">
         <v>115</v>
       </c>
       <c r="AW65" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX65" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AY65" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AZ65">
         <v>29497414870</v>
       </c>
       <c r="BI65" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ65" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK65" t="s">
         <v>735</v>
       </c>
-      <c r="BJ65" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK65" t="s">
-        <v>737</v>
-      </c>
       <c r="BL65" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="BM65" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="BN65" t="s">
         <v>208</v>
       </c>
       <c r="BO65" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP65" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BQ65" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BR65" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS65" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT65" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="BU65" t="s">
         <v>342</v>
       </c>
       <c r="BV65" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="BX65" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ65" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE65" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF65">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:84">
@@ -16503,7 +16497,7 @@
         <v>90</v>
       </c>
       <c r="O66" s="2">
-        <v>45338.39283564815</v>
+        <v>45338</v>
       </c>
       <c r="P66" t="s">
         <v>91</v>
@@ -16578,10 +16572,10 @@
         <v>454</v>
       </c>
       <c r="AQ66" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AR66" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS66">
         <v>15394906</v>
@@ -16590,76 +16584,76 @@
         <v>16</v>
       </c>
       <c r="AU66" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV66">
         <v>115</v>
       </c>
       <c r="AW66" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX66" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AY66" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AZ66">
         <v>29497414870</v>
       </c>
       <c r="BI66" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ66" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK66" t="s">
         <v>735</v>
       </c>
-      <c r="BJ66" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK66" t="s">
-        <v>737</v>
-      </c>
       <c r="BL66" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="BM66" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="BN66" t="s">
         <v>209</v>
       </c>
       <c r="BO66" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP66" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BQ66" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BR66" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS66" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT66" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="BU66" t="s">
         <v>343</v>
       </c>
       <c r="BV66" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="BX66" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ66" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE66" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF66">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:84">
@@ -16706,7 +16700,7 @@
         <v>90</v>
       </c>
       <c r="O67" s="2">
-        <v>45338.39170138889</v>
+        <v>45338</v>
       </c>
       <c r="P67" t="s">
         <v>99</v>
@@ -16775,16 +16769,16 @@
         <v>988474513</v>
       </c>
       <c r="AO67" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AP67" t="s">
         <v>462</v>
       </c>
       <c r="AQ67" t="s">
+        <v>687</v>
+      </c>
+      <c r="AR67" t="s">
         <v>689</v>
-      </c>
-      <c r="AR67" t="s">
-        <v>691</v>
       </c>
       <c r="AS67">
         <v>21143864</v>
@@ -16793,76 +16787,76 @@
         <v>16</v>
       </c>
       <c r="AU67" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV67">
         <v>115</v>
       </c>
       <c r="AW67" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX67" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY67" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ67">
         <v>33829435819</v>
       </c>
       <c r="BI67" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ67" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK67" t="s">
         <v>735</v>
       </c>
-      <c r="BJ67" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK67" t="s">
-        <v>737</v>
-      </c>
       <c r="BL67" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="BM67" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="BN67" t="s">
         <v>210</v>
       </c>
       <c r="BO67" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP67" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ67" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR67" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS67" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT67" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="BU67" t="s">
         <v>344</v>
       </c>
       <c r="BV67" t="s">
+        <v>939</v>
+      </c>
+      <c r="BX67" t="s">
+        <v>734</v>
+      </c>
+      <c r="BZ67" t="s">
+        <v>734</v>
+      </c>
+      <c r="CE67" t="s">
         <v>941</v>
       </c>
-      <c r="BX67" t="s">
-        <v>736</v>
-      </c>
-      <c r="BZ67" t="s">
-        <v>736</v>
-      </c>
-      <c r="CE67" t="s">
-        <v>943</v>
-      </c>
       <c r="CF67">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:84">
@@ -16909,7 +16903,7 @@
         <v>90</v>
       </c>
       <c r="O68" s="2">
-        <v>45338.37403935185</v>
+        <v>45338</v>
       </c>
       <c r="P68" t="s">
         <v>98</v>
@@ -16984,10 +16978,10 @@
         <v>455</v>
       </c>
       <c r="AQ68" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AR68" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AS68">
         <v>13715412</v>
@@ -16996,76 +16990,76 @@
         <v>16</v>
       </c>
       <c r="AU68" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AV68">
         <v>115</v>
       </c>
       <c r="AW68" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AX68" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AY68" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AZ68">
         <v>33829435819</v>
       </c>
       <c r="BI68" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ68" t="s">
+        <v>734</v>
+      </c>
+      <c r="BK68" t="s">
         <v>735</v>
       </c>
-      <c r="BJ68" t="s">
-        <v>736</v>
-      </c>
-      <c r="BK68" t="s">
-        <v>737</v>
-      </c>
       <c r="BL68" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="BM68" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="BN68" t="s">
         <v>211</v>
       </c>
       <c r="BO68" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BP68" t="s">
-        <v>809</v>
+        <v>734</v>
       </c>
       <c r="BQ68" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="BR68" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BS68" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BT68" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="BU68" t="s">
         <v>345</v>
       </c>
       <c r="BV68" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="BX68" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="BZ68" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CE68" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="CF68">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
